--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200327.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200327.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/cov/zhejiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\zhejiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53693947-F5DA-094A-87D9-9C29288A4AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECBF66-D160-4252-A92C-2E4627AC1127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10585,12 +10585,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="新数据表"/>
       <sheetName val="中国各省市区县数据"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10861,47 +10859,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5859375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.1171875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.3515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.17578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.17578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.17578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.64453125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.8203125" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.17578125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.8203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="13"/>
+    <col min="40" max="40" width="5.17578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.8203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="15.75">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -11091,7 +11089,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="15.75">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -11146,7 +11144,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="15.75">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="15.75">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="15.75">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11314,7 +11312,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="15.75">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="15.75">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11424,7 +11422,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="15.75">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -11482,7 +11480,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="15.75">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11537,7 +11535,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="15.75">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -11592,7 +11590,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="15.75">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11647,7 +11645,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="15.75">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -11705,7 +11703,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="15.75">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11766,7 +11764,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="15.75">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -11827,7 +11825,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="15.75">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -11882,7 +11880,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="15.75">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -11937,7 +11935,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="15.75">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -11992,7 +11990,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="15.75">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -12050,7 +12048,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" ht="15.75">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -12108,7 +12106,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" ht="15.75">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -12163,7 +12161,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" ht="15.75">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -12221,7 +12219,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" ht="15.75">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -12242,6 +12240,9 @@
       </c>
       <c r="G23" s="24" t="s">
         <v>3301</v>
+      </c>
+      <c r="I23" s="13">
+        <v>4</v>
       </c>
       <c r="K23" s="13">
         <v>3</v>
@@ -12279,7 +12280,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" ht="15.75">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>1251</v>
       </c>
       <c r="O24" s="13">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="P24" s="13">
         <v>1</v>
@@ -12395,7 +12396,7 @@
     <hyperlink ref="V23" r:id="rId23" xr:uid="{6202AB73-076B-AA41-B0E5-7DEE0659BA3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -12407,7 +12408,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{07978CB6-F70C-4044-BED2-EFABB2019499}">
           <x14:formula1>
-            <xm:f>'/Users/nicole/Desktop/ncp/[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
+            <xm:f>'D:\Users\nicole\Desktop\ncp\[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F24</xm:sqref>
         </x14:dataValidation>
@@ -12426,10 +12427,10 @@
       <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
